--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_54.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_54.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Yosuke Sasaki</t>
+          <t>Minoru Yamashita</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
